--- a/reports/物流单(2016-6-23).xlsx
+++ b/reports/物流单(2016-6-23).xlsx
@@ -19,16 +19,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>发货单编号</t>
+    <t>物流单编号</t>
+  </si>
+  <si>
+    <t>物流公司</t>
+  </si>
+  <si>
+    <t>编号</t>
   </si>
   <si>
     <t>创建时间</t>
-  </si>
-  <si>
-    <t>供应商</t>
-  </si>
-  <si>
-    <t>发货单状态</t>
   </si>
 </sst>
 </file>
